--- a/docs/custom dashboard wireframe/wireframe.xlsx
+++ b/docs/custom dashboard wireframe/wireframe.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_workspace\projects\sonar-dashboard\docs\custom dashboard wireframe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B6D1B2C-D91A-4C60-94C8-1006B0F72470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A788CC69-7CB4-46A2-8928-1357BC85750E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69C05466-4C45-4495-880F-F3FF2D53E052}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
-    <sheet name="history" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="history" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -730,7 +730,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -743,15 +743,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -760,12 +751,19 @@
     <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="18" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="18" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1143,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD9DA70-D7AE-40A6-9E46-B79E649CCF4D}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1163,54 +1161,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="10" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="9" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1237,11 +1235,11 @@
       <c r="H3" s="4">
         <v>0.81299999999999994</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="9">
         <v>71</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13">
+      <c r="J3" s="9"/>
+      <c r="K3" s="10">
         <v>0.53700000000000003</v>
       </c>
     </row>
@@ -1268,11 +1266,11 @@
       <c r="H4" s="5">
         <v>0</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="9">
         <v>57</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="14">
+      <c r="J4" s="9"/>
+      <c r="K4" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1299,11 +1297,11 @@
       <c r="H5" s="4">
         <v>0.91800000000000004</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="9">
         <v>18</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13">
+      <c r="J5" s="9"/>
+      <c r="K5" s="10">
         <v>0.53400000000000003</v>
       </c>
     </row>
@@ -1330,11 +1328,11 @@
       <c r="H6" s="4">
         <v>0.29899999999999999</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="9">
         <v>72</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13">
+      <c r="J6" s="9"/>
+      <c r="K6" s="10">
         <v>0.60799999999999998</v>
       </c>
     </row>
@@ -1361,11 +1359,11 @@
       <c r="H7" s="5">
         <v>0</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="9">
         <v>132</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="14">
+      <c r="J7" s="9"/>
+      <c r="K7" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1392,11 +1390,11 @@
       <c r="H8" s="4">
         <v>0.63500000000000001</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="9">
         <v>17</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13">
+      <c r="J8" s="9"/>
+      <c r="K8" s="10">
         <v>0.54300000000000004</v>
       </c>
     </row>
@@ -1423,11 +1421,11 @@
       <c r="H9" s="4">
         <v>0.10299999999999999</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="9">
         <v>25</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13">
+      <c r="J9" s="9"/>
+      <c r="K9" s="10">
         <v>0.58399999999999996</v>
       </c>
     </row>
@@ -1454,11 +1452,11 @@
       <c r="H10" s="4">
         <v>0.16900000000000001</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="9">
         <v>50</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13">
+      <c r="J10" s="9"/>
+      <c r="K10" s="10">
         <v>0.48499999999999999</v>
       </c>
     </row>
@@ -1485,11 +1483,11 @@
       <c r="H11" s="4">
         <v>0.93100000000000005</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="9">
         <v>21</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13">
+      <c r="J11" s="9"/>
+      <c r="K11" s="10">
         <v>0.628</v>
       </c>
     </row>
@@ -1516,23 +1514,23 @@
       <c r="H12" s="4">
         <v>0.68899999999999995</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="9">
         <v>224</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13">
+      <c r="J12" s="9"/>
+      <c r="K12" s="10">
         <v>0.45400000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1540,6 +1538,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89619868-F52C-4468-9C0F-38C3A88162A3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F245826C-DD23-4256-9F02-1605398D1F66}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -1551,8 +1561,7 @@
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
@@ -1573,202 +1582,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="12">
         <v>72</v>
       </c>
-      <c r="E2" s="17">
-        <v>0</v>
-      </c>
-      <c r="F2" s="17">
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="12">
         <v>74</v>
       </c>
-      <c r="E3" s="17">
-        <v>0</v>
-      </c>
-      <c r="F3" s="17">
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
         <v>53.4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="12">
         <v>71</v>
       </c>
-      <c r="E4" s="17">
-        <v>0</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
         <v>53.7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="12">
         <v>69</v>
       </c>
-      <c r="E5" s="17">
-        <v>0</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
         <v>53.7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="12">
         <v>64</v>
       </c>
-      <c r="E6" s="17">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
         <v>53.8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="12">
         <v>63</v>
       </c>
-      <c r="E7" s="17">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17">
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
         <v>53.8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="12">
         <v>61</v>
       </c>
-      <c r="E8" s="17">
-        <v>0</v>
-      </c>
-      <c r="F8" s="17">
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
         <v>53.8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="12">
         <v>60</v>
       </c>
-      <c r="E9" s="17">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17">
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
         <v>53.8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="12">
         <v>36</v>
       </c>
-      <c r="E10" s="17">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17">
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="12">
         <v>55</v>
       </c>
-      <c r="E11" s="17">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17">
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
         <v>53.9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="12">
         <v>49</v>
       </c>
-      <c r="E12" s="17">
-        <v>0</v>
-      </c>
-      <c r="F12" s="17">
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
         <v>54</v>
       </c>
     </row>
